--- a/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
+++ b/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="175">
   <si>
     <t>properties.type</t>
   </si>
@@ -509,6 +509,36 @@
   </si>
   <si>
     <t>aantal</t>
+  </si>
+  <si>
+    <t>GetesteBeginconstructie</t>
+  </si>
+  <si>
+    <t>NietgetestBeginstuk</t>
+  </si>
+  <si>
+    <t>Motorvangplank</t>
+  </si>
+  <si>
+    <t>Geleideconstructie</t>
+  </si>
+  <si>
+    <t>Dilatatie</t>
+  </si>
+  <si>
+    <t>Eindstuk</t>
+  </si>
+  <si>
+    <t>Overgangsconstructie</t>
+  </si>
+  <si>
+    <t>Obstakelbeveiliger</t>
+  </si>
+  <si>
+    <t>isVerwijderbaar</t>
+  </si>
+  <si>
+    <t>isPermanent</t>
   </si>
 </sst>
 </file>
@@ -652,7 +682,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,6 +862,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -993,8 +1029,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1337,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1349,9 +1386,11 @@
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1367,36 +1406,48 @@
       <c r="E1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="I1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="H2" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>536</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1412,8 +1463,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1429,8 +1483,11 @@
       <c r="E5">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1446,8 +1503,11 @@
       <c r="E6">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1463,8 +1523,11 @@
       <c r="E7">
         <v>1179</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1477,8 +1540,11 @@
       <c r="E8">
         <v>1950</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1491,8 +1557,11 @@
       <c r="E9">
         <v>415</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1509,7 +1578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1595,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1543,7 +1612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1560,7 +1629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1577,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1594,7 +1663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2340,7 +2409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -3032,11 +3101,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C135" t="s">
+    <row r="135" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="1">
         <v>13</v>
       </c>
     </row>
@@ -3288,27 +3357,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C167" t="s">
+    <row r="167" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="1">
         <v>1264</v>
       </c>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C168" t="s">
+    <row r="168" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C169" t="s">
+    <row r="169" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="1">
         <v>2294</v>
       </c>
     </row>

--- a/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
+++ b/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="624" windowWidth="28164" windowHeight="12168"/>
+    <workbookView xWindow="570" yWindow="630" windowWidth="28170" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="analyse_afschermende_constructi" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="172">
   <si>
     <t>properties.type</t>
   </si>
@@ -509,6 +509,27 @@
   </si>
   <si>
     <t>aantal</t>
+  </si>
+  <si>
+    <t>beginconstructie</t>
+  </si>
+  <si>
+    <t>eindconstructie</t>
+  </si>
+  <si>
+    <t>geleidecosntructie</t>
+  </si>
+  <si>
+    <t>bijkomende stukken bv aan bruggen</t>
+  </si>
+  <si>
+    <t>nogal lang</t>
+  </si>
+  <si>
+    <t>mogen we dit beschouwen als begin, of omwille van type eind</t>
+  </si>
+  <si>
+    <t>overgangsconstructie</t>
   </si>
 </sst>
 </file>
@@ -1337,21 +1358,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1389,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1382,7 +1403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1396,7 +1417,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1413,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1430,7 +1451,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1447,7 +1468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1485,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1478,7 +1499,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1513,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1509,7 +1530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1547,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1543,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1560,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1577,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1594,7 +1615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1611,7 +1632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1628,7 +1649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1693,7 +1714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1710,7 +1731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1727,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1744,7 +1765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1761,7 +1782,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1778,7 +1799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1812,7 +1833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +1850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1846,7 +1867,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1860,7 +1881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1877,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1894,7 +1915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1911,7 +1932,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1928,7 +1949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1945,7 +1966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1962,7 +1983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1979,7 +2000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1996,7 +2017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2013,7 +2034,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2030,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2047,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2064,7 +2085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2078,7 +2099,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2092,7 +2113,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2106,7 +2127,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2120,7 +2141,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2134,7 +2155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2148,7 +2169,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2162,7 +2183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2176,7 +2197,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2190,7 +2211,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2204,7 +2225,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2218,7 +2239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2232,7 +2253,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2246,7 +2267,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2260,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2274,7 +2295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2285,9 +2306,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>62</v>
@@ -2296,9 +2320,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
@@ -2307,9 +2334,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2318,9 +2348,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>77</v>
@@ -2329,9 +2362,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2340,7 +2376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -2357,7 +2393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -2371,7 +2407,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -2388,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -2405,7 +2441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -2422,7 +2458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -2439,7 +2475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -2453,7 +2489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -2467,7 +2503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -2481,7 +2517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -2498,10 +2534,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>86</v>
       </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
@@ -2509,7 +2548,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
@@ -2520,7 +2562,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
@@ -2531,7 +2576,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
       <c r="B78" t="s">
         <v>9</v>
       </c>
@@ -2542,7 +2590,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>165</v>
+      </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
@@ -2553,7 +2604,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
@@ -2564,7 +2618,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>165</v>
+      </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
@@ -2575,7 +2632,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
@@ -2586,7 +2646,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
@@ -2596,8 +2659,14 @@
       <c r="E83">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
@@ -2608,7 +2677,10 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
@@ -2619,7 +2691,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
@@ -2630,7 +2705,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
@@ -2641,7 +2719,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
@@ -2652,7 +2733,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
@@ -2663,7 +2747,10 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
@@ -2674,7 +2761,10 @@
         <v>349</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
@@ -2685,7 +2775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>99</v>
       </c>
@@ -2693,7 +2783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>100</v>
       </c>
@@ -2701,7 +2791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>101</v>
       </c>
@@ -2709,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>17</v>
       </c>
@@ -2717,7 +2807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>102</v>
       </c>
@@ -2725,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>18</v>
       </c>
@@ -2733,7 +2823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>11</v>
       </c>
@@ -2744,7 +2834,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>165</v>
+      </c>
       <c r="C99" t="s">
         <v>103</v>
       </c>
@@ -2752,7 +2845,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
       <c r="C100" t="s">
         <v>104</v>
       </c>
@@ -2760,7 +2859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>105</v>
       </c>
@@ -2768,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>106</v>
       </c>
@@ -2776,7 +2875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>24</v>
       </c>
@@ -2784,7 +2883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>107</v>
       </c>
@@ -2792,15 +2891,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>165</v>
+      </c>
       <c r="C105" t="s">
         <v>108</v>
       </c>
       <c r="E105">
         <v>77</v>
       </c>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>109</v>
       </c>
@@ -2808,7 +2913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>110</v>
       </c>
@@ -2816,7 +2921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>111</v>
       </c>
@@ -2824,7 +2929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>90</v>
       </c>
@@ -2832,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>112</v>
       </c>
@@ -2840,7 +2945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>91</v>
       </c>
@@ -2848,7 +2953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>113</v>
       </c>
@@ -2856,7 +2961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>92</v>
       </c>
@@ -2864,7 +2969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>114</v>
       </c>
@@ -2872,7 +2977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>115</v>
       </c>
@@ -2880,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>116</v>
       </c>
@@ -2888,7 +2993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>117</v>
       </c>
@@ -2896,7 +3001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>118</v>
       </c>
@@ -2904,7 +3009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>119</v>
       </c>
@@ -2912,15 +3017,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>165</v>
+      </c>
       <c r="C120" t="s">
         <v>120</v>
       </c>
       <c r="E120">
         <v>62</v>
       </c>
-    </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="F120" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>121</v>
       </c>
@@ -2928,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>19</v>
       </c>
@@ -2936,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>122</v>
       </c>
@@ -2944,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>123</v>
       </c>
@@ -2952,7 +3063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>124</v>
       </c>
@@ -2960,7 +3071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>94</v>
       </c>
@@ -2968,7 +3079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>125</v>
       </c>
@@ -2976,7 +3087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>76</v>
       </c>
@@ -2984,7 +3095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>126</v>
       </c>
@@ -2992,7 +3103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>127</v>
       </c>
@@ -3000,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>128</v>
       </c>
@@ -3008,7 +3119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>129</v>
       </c>
@@ -3016,7 +3127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>130</v>
       </c>
@@ -3024,7 +3135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>131</v>
       </c>
@@ -3032,7 +3143,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
       <c r="C135" t="s">
         <v>132</v>
       </c>
@@ -3040,7 +3154,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>171</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
       <c r="C136" t="s">
         <v>83</v>
       </c>
@@ -3048,7 +3168,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
       <c r="C137" t="s">
         <v>84</v>
       </c>
@@ -3056,7 +3182,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>133</v>
       </c>
@@ -3064,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>134</v>
       </c>
@@ -3072,7 +3198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>135</v>
       </c>
@@ -3080,7 +3206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>136</v>
       </c>
@@ -3088,7 +3214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>137</v>
       </c>
@@ -3096,7 +3222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>138</v>
       </c>
@@ -3104,7 +3230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>139</v>
       </c>
@@ -3112,7 +3238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>140</v>
       </c>
@@ -3120,7 +3246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>141</v>
       </c>
@@ -3128,7 +3254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>142</v>
       </c>
@@ -3136,7 +3262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>143</v>
       </c>
@@ -3144,7 +3270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>144</v>
       </c>
@@ -3152,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>145</v>
       </c>
@@ -3160,7 +3286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>146</v>
       </c>
@@ -3168,7 +3294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>147</v>
       </c>
@@ -3176,7 +3302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>148</v>
       </c>
@@ -3184,7 +3310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>149</v>
       </c>
@@ -3192,7 +3318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>150</v>
       </c>
@@ -3200,7 +3326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>151</v>
       </c>
@@ -3208,7 +3334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>152</v>
       </c>
@@ -3216,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>82</v>
       </c>
@@ -3224,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>153</v>
       </c>
@@ -3232,7 +3358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>154</v>
       </c>
@@ -3240,7 +3366,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
       <c r="C161" t="s">
         <v>155</v>
       </c>
@@ -3248,7 +3380,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>156</v>
       </c>
@@ -3256,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>157</v>
       </c>
@@ -3264,7 +3396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>158</v>
       </c>
@@ -3272,7 +3404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>159</v>
       </c>
@@ -3280,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>160</v>
       </c>
@@ -3288,7 +3420,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
       <c r="C167" t="s">
         <v>22</v>
       </c>
@@ -3296,7 +3434,10 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
       <c r="C168" t="s">
         <v>95</v>
       </c>
@@ -3304,7 +3445,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
       <c r="C169" t="s">
         <v>23</v>
       </c>
@@ -3312,7 +3459,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>161</v>
       </c>
@@ -3320,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>162</v>
       </c>
@@ -3328,7 +3475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
         <v>20</v>
       </c>
@@ -3336,7 +3483,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
       <c r="C173" t="s">
         <v>163</v>
       </c>
@@ -3344,7 +3497,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
       <c r="C174" t="s">
         <v>62</v>
       </c>
@@ -3352,7 +3511,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
       <c r="C175" t="s">
         <v>63</v>
       </c>
@@ -3360,7 +3525,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
       <c r="C176" t="s">
         <v>64</v>
       </c>
@@ -3368,7 +3539,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
       <c r="C177" t="s">
         <v>66</v>
       </c>
@@ -3376,7 +3553,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
       <c r="C178" t="s">
         <v>67</v>
       </c>
@@ -3384,7 +3567,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
       <c r="C179" t="s">
         <v>97</v>
       </c>
@@ -3392,7 +3581,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
       <c r="C180" t="s">
         <v>98</v>
       </c>
@@ -3400,7 +3595,13 @@
         <v>541</v>
       </c>
     </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
       <c r="C181" t="s">
         <v>68</v>
       </c>
@@ -3408,7 +3609,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
       <c r="C182" t="s">
         <v>69</v>
       </c>
@@ -3416,7 +3623,13 @@
         <v>346</v>
       </c>
     </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
       <c r="C183" t="s">
         <v>70</v>
       </c>
@@ -3424,7 +3637,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
       <c r="C184" t="s">
         <v>77</v>
       </c>
@@ -3432,7 +3651,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
       <c r="C185" t="s">
         <v>71</v>
       </c>
@@ -3440,7 +3665,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
       <c r="C186" t="s">
         <v>72</v>
       </c>
@@ -3448,7 +3679,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
       <c r="C187" t="s">
         <v>73</v>
       </c>
@@ -3456,7 +3693,13 @@
         <v>391</v>
       </c>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
       <c r="C188" t="s">
         <v>74</v>
       </c>

--- a/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
+++ b/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="630" windowWidth="28170" windowHeight="12165"/>
+    <workbookView xWindow="576" yWindow="636" windowWidth="28176" windowHeight="12168"/>
   </bookViews>
   <sheets>
     <sheet name="analyse_afschermende_constructi" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>motorvangplank</t>
   </si>
   <si>
-    <t>obstakelbeveilger</t>
-  </si>
-  <si>
     <t>overgangsconstructies</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>superrail</t>
   </si>
   <si>
-    <t>begin- en eindconstructie</t>
-  </si>
-  <si>
     <t>onbekend beton begin- en eindconstructie</t>
   </si>
   <si>
@@ -530,6 +524,12 @@
   </si>
   <si>
     <t>overgangsconstructie</t>
+  </si>
+  <si>
+    <t>eindstuk</t>
+  </si>
+  <si>
+    <t>obstakelbeveiliger</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,6 +853,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1014,8 +1020,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1360,19 +1368,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1386,38 +1394,38 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1425,7 +1433,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1434,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1442,16 +1450,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1459,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1468,7 +1476,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -1485,7 +1493,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1493,13 +1501,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>1950</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1507,13 +1515,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>415</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1521,16 +1529,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1538,16 +1546,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1564,7 +1572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1572,16 +1580,16 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1606,16 +1614,16 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1623,16 +1631,16 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1640,16 +1648,16 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1657,13 +1665,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1671,16 +1679,16 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1688,16 +1696,16 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1705,16 +1713,16 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1722,16 +1730,16 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1739,16 +1747,16 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1756,16 +1764,16 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1773,16 +1781,16 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1790,33 +1798,33 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
         <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
       </c>
       <c r="E27">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1824,16 +1832,16 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1841,16 +1849,16 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1858,16 +1866,16 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1875,13 +1883,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1889,16 +1897,16 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1906,16 +1914,16 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1923,16 +1931,16 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1940,16 +1948,16 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1957,16 +1965,16 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1974,16 +1982,16 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1991,16 +1999,16 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2008,16 +2016,16 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2025,16 +2033,16 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2051,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2059,16 +2067,16 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E42">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2076,7 +2084,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2085,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2093,13 +2101,13 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E44">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2107,13 +2115,13 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E45">
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2121,13 +2129,13 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E46">
         <v>271</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2135,13 +2143,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E47">
         <v>4312</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2149,13 +2157,13 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E48">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2163,13 +2171,13 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E49">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2177,13 +2185,13 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E50">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2191,13 +2199,13 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E51">
         <v>818</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2205,13 +2213,13 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E52">
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2219,13 +2227,13 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E53">
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2233,13 +2241,13 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E54">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2247,13 +2255,13 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E55">
         <v>908</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2261,13 +2269,13 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E56">
         <v>503</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2275,13 +2283,13 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2295,18 +2303,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E59">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2314,13 +2322,13 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2328,13 +2336,13 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2342,13 +2350,13 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E62">
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2356,13 +2364,13 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E63">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2370,13 +2378,13 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E64">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -2384,16 +2392,16 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E65">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -2401,38 +2409,38 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E66">
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2441,128 +2449,128 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E69">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E70">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E71">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E72">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E73">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>88</v>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2570,13 +2578,13 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E77">
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2584,27 +2592,27 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E78">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2612,58 +2620,58 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E80">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E81">
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E83">
         <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2671,13 +2679,13 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E84">
         <v>1754</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2685,13 +2693,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E85">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2699,13 +2707,13 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E86">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2713,13 +2721,13 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2727,13 +2735,13 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E88">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2741,13 +2749,13 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E89">
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -2755,13 +2763,13 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E90">
         <v>349</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2769,61 +2777,61 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E91">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E92">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E93">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>11</v>
       </c>
@@ -2834,18 +2842,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -2853,520 +2861,520 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E102">
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E103">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E104">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E105">
         <v>77</v>
       </c>
       <c r="F105" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E106">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E107">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E108">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E110">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E111">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E112">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E113">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E116">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E117">
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E118">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C120" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E120">
         <v>62</v>
       </c>
       <c r="F120" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E121">
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E123">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E124">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E125">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E126">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E128">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E129">
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E130">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E131">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E132">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E133">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E134">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E135">
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E136">
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E137">
         <v>225</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E139">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E140">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E141">
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E142">
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E143">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E144">
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E145">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E146">
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E147">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E148">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E151">
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E152">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E153">
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E154">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E155">
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E156">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E159">
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E160">
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -3374,116 +3382,116 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E161">
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E163">
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E164">
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E166">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="B167" t="s">
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E167">
         <v>1264</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>6</v>
-      </c>
-      <c r="C168" t="s">
-        <v>95</v>
-      </c>
-      <c r="E168">
+    <row r="168" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E168" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
         <v>21</v>
-      </c>
-      <c r="B169" t="s">
-        <v>6</v>
-      </c>
-      <c r="C169" t="s">
-        <v>23</v>
       </c>
       <c r="E169">
         <v>2294</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E171">
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -3491,13 +3499,13 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -3505,13 +3513,13 @@
         <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E174">
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -3519,13 +3527,13 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E175">
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -3533,13 +3541,13 @@
         <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E176">
         <v>262</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -3547,13 +3555,13 @@
         <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E177">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -3561,13 +3569,13 @@
         <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E178">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -3575,13 +3583,13 @@
         <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E179">
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -3589,13 +3597,13 @@
         <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E180">
         <v>541</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -3603,13 +3611,13 @@
         <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -3617,13 +3625,13 @@
         <v>6</v>
       </c>
       <c r="C182" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E182">
         <v>346</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -3631,13 +3639,13 @@
         <v>6</v>
       </c>
       <c r="C183" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E183">
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -3645,13 +3653,13 @@
         <v>6</v>
       </c>
       <c r="C184" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E184">
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -3659,13 +3667,13 @@
         <v>6</v>
       </c>
       <c r="C185" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E185">
         <v>143</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -3673,13 +3681,13 @@
         <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E186">
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -3687,13 +3695,13 @@
         <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E187">
         <v>391</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -3701,7 +3709,7 @@
         <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E188">
         <v>279</v>
@@ -3709,5 +3717,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
+++ b/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="172">
   <si>
     <t>properties.type</t>
   </si>
@@ -1366,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2350,10 +2350,10 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E62">
-        <v>297</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2364,24 +2364,27 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E63">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="D64" t="s">
+        <v>46</v>
       </c>
       <c r="E64">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2392,27 +2395,27 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E65">
-        <v>10</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
       </c>
       <c r="E66">
-        <v>252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2426,10 +2429,10 @@
         <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2437,16 +2440,16 @@
         <v>171</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2457,13 +2460,13 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E69">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2474,27 +2477,24 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E70">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E71">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2502,13 +2502,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2519,55 +2519,55 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D73" t="s">
+        <v>44</v>
       </c>
       <c r="E73">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>84</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>86</v>
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>7</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2575,103 +2575,103 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E77">
-        <v>116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E78">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E81">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="F82" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E83">
-        <v>39</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2679,10 +2679,10 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="E84">
-        <v>1754</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2693,10 +2693,10 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2707,10 +2707,10 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E86">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2721,7 +2721,7 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E87">
         <v>3</v>
@@ -2735,10 +2735,10 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2749,35 +2749,23 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E89">
-        <v>252</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
       <c r="C90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E90">
-        <v>349</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" t="s">
-        <v>6</v>
-      </c>
       <c r="C91" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E91">
         <v>6</v>
@@ -2785,23 +2773,23 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E93">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2809,145 +2797,145 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E95">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>100</v>
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>163</v>
+      </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="E97">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
       <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+      <c r="E100">
         <v>11</v>
-      </c>
-      <c r="D98" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>163</v>
-      </c>
-      <c r="C99" t="s">
-        <v>101</v>
-      </c>
-      <c r="E99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" t="s">
-        <v>102</v>
-      </c>
-      <c r="E100">
-        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E102">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>163</v>
+      </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>77</v>
+      </c>
+      <c r="F103" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E104">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>163</v>
-      </c>
       <c r="C105" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E105">
-        <v>77</v>
-      </c>
-      <c r="F105" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E108">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E110">
         <v>2</v>
@@ -2955,15 +2943,15 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E111">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -2971,15 +2959,15 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E113">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -2987,117 +2975,117 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E117">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>163</v>
+      </c>
       <c r="C118" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E118">
-        <v>7</v>
+        <v>62</v>
+      </c>
+      <c r="F118" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120">
         <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>163</v>
-      </c>
-      <c r="C120" t="s">
-        <v>118</v>
-      </c>
-      <c r="E120">
-        <v>62</v>
-      </c>
-      <c r="F120" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E121">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E125">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E126">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -3105,15 +3093,15 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E129">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -3121,118 +3109,118 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E131">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
       <c r="C133" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>169</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
       <c r="C134" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="E134">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>169</v>
+      </c>
       <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>82</v>
+      </c>
+      <c r="E135">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>131</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>132</v>
+      </c>
+      <c r="E137">
         <v>4</v>
-      </c>
-      <c r="C135" t="s">
-        <v>130</v>
-      </c>
-      <c r="E135">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>169</v>
-      </c>
-      <c r="B136" t="s">
-        <v>6</v>
-      </c>
-      <c r="C136" t="s">
-        <v>81</v>
-      </c>
-      <c r="E136">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>169</v>
-      </c>
-      <c r="B137" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" t="s">
-        <v>82</v>
-      </c>
-      <c r="E137">
-        <v>225</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E139">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E141">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E142">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E143">
         <v>2</v>
@@ -3240,192 +3228,201 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E144">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>141</v>
+      </c>
+      <c r="E146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>142</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>143</v>
+      </c>
+      <c r="E148">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C146" t="s">
-        <v>139</v>
-      </c>
-      <c r="E146">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C147" t="s">
-        <v>140</v>
-      </c>
-      <c r="E147">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C148" t="s">
-        <v>141</v>
-      </c>
-      <c r="E148">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E151">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E153">
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E154">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>150</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>80</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>151</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>152</v>
+      </c>
+      <c r="E158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C155" t="s">
-        <v>148</v>
-      </c>
-      <c r="E155">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C156" t="s">
-        <v>149</v>
-      </c>
-      <c r="E156">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C157" t="s">
+      <c r="C159" t="s">
+        <v>153</v>
+      </c>
+      <c r="E159">
         <v>150</v>
       </c>
-      <c r="E157">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>154</v>
+      </c>
+      <c r="E160">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C158" t="s">
-        <v>80</v>
-      </c>
-      <c r="E158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C159" t="s">
-        <v>151</v>
-      </c>
-      <c r="E159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C160" t="s">
-        <v>152</v>
-      </c>
-      <c r="E160">
-        <v>5</v>
-      </c>
-    </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>7</v>
-      </c>
-      <c r="B161" t="s">
-        <v>4</v>
-      </c>
       <c r="C161" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E161">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E163">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E164">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
       <c r="C165" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="E165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C166" t="s">
-        <v>158</v>
-      </c>
-      <c r="E166">
-        <v>4</v>
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E166" s="1">
+        <v>114</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -3433,62 +3430,65 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E167">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E168" s="1">
-        <v>114</v>
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>159</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>170</v>
-      </c>
-      <c r="B169" t="s">
-        <v>6</v>
-      </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="E169">
-        <v>2294</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
       <c r="C171" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E171">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
+      </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -3496,13 +3496,13 @@
         <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -3513,10 +3513,10 @@
         <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E174">
-        <v>34</v>
+        <v>262</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -3527,10 +3527,10 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E175">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E176">
-        <v>262</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -3555,10 +3555,10 @@
         <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="E177">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -3569,10 +3569,10 @@
         <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E178">
-        <v>9</v>
+        <v>541</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -3583,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E179">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -3597,10 +3597,10 @@
         <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E180">
-        <v>541</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -3611,10 +3611,10 @@
         <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -3625,10 +3625,10 @@
         <v>6</v>
       </c>
       <c r="C182" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E182">
-        <v>346</v>
+        <v>143</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -3639,10 +3639,10 @@
         <v>6</v>
       </c>
       <c r="C183" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E183">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -3653,10 +3653,10 @@
         <v>6</v>
       </c>
       <c r="C184" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E184">
-        <v>8</v>
+        <v>391</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -3667,51 +3667,9 @@
         <v>6</v>
       </c>
       <c r="C185" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E185">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>7</v>
-      </c>
-      <c r="B186" t="s">
-        <v>6</v>
-      </c>
-      <c r="C186" t="s">
-        <v>70</v>
-      </c>
-      <c r="E186">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>7</v>
-      </c>
-      <c r="B187" t="s">
-        <v>6</v>
-      </c>
-      <c r="C187" t="s">
-        <v>71</v>
-      </c>
-      <c r="E187">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>7</v>
-      </c>
-      <c r="B188" t="s">
-        <v>6</v>
-      </c>
-      <c r="C188" t="s">
-        <v>72</v>
-      </c>
-      <c r="E188">
         <v>279</v>
       </c>
     </row>

--- a/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
+++ b/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="172">
   <si>
     <t>properties.type</t>
   </si>
@@ -1366,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2358,16 +2358,19 @@
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="D63" t="s">
+        <v>46</v>
       </c>
       <c r="E63">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2378,27 +2381,27 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>23</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
       </c>
       <c r="E65">
-        <v>252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2412,10 +2415,10 @@
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2423,16 +2426,16 @@
         <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2443,13 +2446,13 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E68">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2460,27 +2463,24 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E69">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E70">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2488,13 +2488,13 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2505,55 +2505,55 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D72" t="s">
+        <v>44</v>
       </c>
       <c r="E72">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>84</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>86</v>
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>7</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2561,103 +2561,103 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E76">
-        <v>116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E77">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E80">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="F81" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E82">
-        <v>39</v>
-      </c>
-      <c r="F82" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="E83">
-        <v>1754</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2679,10 +2679,10 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2693,10 +2693,10 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E85">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2707,7 +2707,7 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E86">
         <v>3</v>
@@ -2721,10 +2721,10 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2735,159 +2735,153 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88">
-        <v>252</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" t="s">
-        <v>6</v>
-      </c>
       <c r="C89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89">
-        <v>349</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
       </c>
       <c r="E95">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96">
         <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C96" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96">
-        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>163</v>
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E97">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" t="s">
-        <v>4</v>
-      </c>
       <c r="C98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E100">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>163</v>
+      </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E102">
-        <v>16</v>
+        <v>77</v>
+      </c>
+      <c r="F102" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>163</v>
-      </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E103">
-        <v>77</v>
-      </c>
-      <c r="F103" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -2895,141 +2889,141 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E115">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E116">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>163</v>
+      </c>
       <c r="C117" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="F117" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>163</v>
-      </c>
       <c r="C118" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E118">
-        <v>62</v>
-      </c>
-      <c r="F118" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="E119">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -3037,15 +3031,15 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E123">
         <v>8</v>
@@ -3053,15 +3047,15 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E124">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -3069,69 +3063,75 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="E126">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E127">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E129">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E131">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
       <c r="C132" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E132">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>169</v>
+      </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="E133">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -3142,181 +3142,175 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E134">
-        <v>27</v>
+        <v>225</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>169</v>
-      </c>
-      <c r="B135" t="s">
-        <v>6</v>
-      </c>
       <c r="C135" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="E135">
-        <v>225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E137">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E138">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E139">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E140">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E142">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E143">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E144">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E145">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E146">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E149">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E151">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E152">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E153">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E154">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -3324,140 +3318,146 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
       <c r="C158" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E158">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>7</v>
-      </c>
-      <c r="B159" t="s">
-        <v>4</v>
-      </c>
       <c r="C159" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E159">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E161">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E162">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E165" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>21</v>
+      </c>
+      <c r="E166">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>159</v>
+      </c>
+      <c r="E167">
         <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C164" t="s">
-        <v>158</v>
-      </c>
-      <c r="E164">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>170</v>
-      </c>
-      <c r="B165" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" t="s">
-        <v>20</v>
-      </c>
-      <c r="E165">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E166" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>170</v>
-      </c>
-      <c r="B167" t="s">
-        <v>6</v>
-      </c>
-      <c r="C167" t="s">
-        <v>21</v>
-      </c>
-      <c r="E167">
-        <v>2294</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="E169">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
       <c r="C170" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -3468,13 +3468,13 @@
         <v>7</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -3485,10 +3485,10 @@
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E172">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -3499,10 +3499,10 @@
         <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E173">
-        <v>63</v>
+        <v>262</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -3513,10 +3513,10 @@
         <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E174">
-        <v>262</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -3527,10 +3527,10 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E175">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E176">
-        <v>9</v>
+        <v>541</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -3555,10 +3555,10 @@
         <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E177">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -3569,10 +3569,10 @@
         <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E178">
-        <v>541</v>
+        <v>100</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -3583,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -3597,10 +3597,10 @@
         <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E180">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -3611,65 +3611,9 @@
         <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E181">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>7</v>
-      </c>
-      <c r="B182" t="s">
-        <v>6</v>
-      </c>
-      <c r="C182" t="s">
-        <v>69</v>
-      </c>
-      <c r="E182">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>7</v>
-      </c>
-      <c r="B183" t="s">
-        <v>6</v>
-      </c>
-      <c r="C183" t="s">
-        <v>70</v>
-      </c>
-      <c r="E183">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>7</v>
-      </c>
-      <c r="B184" t="s">
-        <v>6</v>
-      </c>
-      <c r="C184" t="s">
-        <v>71</v>
-      </c>
-      <c r="E184">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>7</v>
-      </c>
-      <c r="B185" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" t="s">
-        <v>72</v>
-      </c>
-      <c r="E185">
         <v>279</v>
       </c>
     </row>

--- a/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
+++ b/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="171">
   <si>
     <t>properties.type</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>motorvangplank</t>
-  </si>
-  <si>
-    <t>overgangsconstructies</t>
   </si>
   <si>
     <t>schampkant</t>
@@ -1366,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,18 +1391,18 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>90</v>
@@ -1413,13 +1410,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>536</v>
@@ -1433,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1450,10 +1447,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5">
         <v>106</v>
@@ -1467,7 +1464,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1484,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -1501,7 +1498,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1950</v>
@@ -1515,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>415</v>
@@ -1529,10 +1526,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1546,10 +1543,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>66</v>
@@ -1563,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1580,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1614,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>36</v>
@@ -1631,10 +1628,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>45</v>
@@ -1648,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>43</v>
@@ -1665,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -1679,10 +1676,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1696,10 +1693,10 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1713,10 +1710,10 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1730,10 +1727,10 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>17</v>
@@ -1747,10 +1744,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1764,10 +1761,10 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1781,10 +1778,10 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>93</v>
@@ -1798,10 +1795,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>7</v>
@@ -1815,10 +1812,10 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
         <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
       </c>
       <c r="E27">
         <v>15</v>
@@ -1832,10 +1829,10 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
         <v>45</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1849,10 +1846,10 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29">
         <v>51</v>
@@ -1866,10 +1863,10 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>178</v>
@@ -1883,7 +1880,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -1897,10 +1894,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1914,10 +1911,10 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <v>7</v>
@@ -1931,10 +1928,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <v>76</v>
@@ -1948,10 +1945,10 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>12</v>
@@ -1965,10 +1962,10 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>10</v>
@@ -1982,10 +1979,10 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -1999,10 +1996,10 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <v>29</v>
@@ -2016,10 +2013,10 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -2033,10 +2030,10 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40">
         <v>193</v>
@@ -2067,10 +2064,10 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
         <v>58</v>
-      </c>
-      <c r="D42" t="s">
-        <v>59</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -2084,7 +2081,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2101,7 +2098,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44">
         <v>81</v>
@@ -2115,7 +2112,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>222</v>
@@ -2129,7 +2126,7 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46">
         <v>271</v>
@@ -2143,7 +2140,7 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47">
         <v>4312</v>
@@ -2157,7 +2154,7 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <v>17</v>
@@ -2171,7 +2168,7 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E49">
         <v>51</v>
@@ -2185,7 +2182,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -2199,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E51">
         <v>818</v>
@@ -2213,7 +2210,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52">
         <v>135</v>
@@ -2227,7 +2224,7 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E53">
         <v>232</v>
@@ -2241,7 +2238,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54">
         <v>57</v>
@@ -2255,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E55">
         <v>908</v>
@@ -2269,7 +2266,7 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56">
         <v>503</v>
@@ -2283,7 +2280,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2308,7 +2305,7 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E59">
         <v>10</v>
@@ -2322,7 +2319,7 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -2336,7 +2333,7 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -2350,7 +2347,7 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E62">
         <v>31</v>
@@ -2364,10 +2361,10 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E63">
         <v>10</v>
@@ -2381,38 +2378,38 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E64">
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
       <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
         <v>23</v>
-      </c>
-      <c r="D65" t="s">
-        <v>24</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2421,71 +2418,71 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E67">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E68">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E69">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2493,33 +2490,33 @@
       <c r="C71" t="s">
         <v>82</v>
       </c>
+      <c r="D71" t="s">
+        <v>43</v>
+      </c>
       <c r="E71">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>84</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
@@ -2528,51 +2525,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>86</v>
+    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>7</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
       <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
         <v>86</v>
       </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" t="s">
-        <v>15</v>
-      </c>
       <c r="E75">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>87</v>
       </c>
       <c r="E76">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2581,12 +2578,12 @@
         <v>88</v>
       </c>
       <c r="E77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -2595,10 +2592,10 @@
         <v>89</v>
       </c>
       <c r="E78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>163</v>
       </c>
@@ -2609,10 +2606,10 @@
         <v>90</v>
       </c>
       <c r="E79">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>164</v>
       </c>
@@ -2623,12 +2620,15 @@
         <v>91</v>
       </c>
       <c r="E80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -2637,13 +2637,10 @@
         <v>92</v>
       </c>
       <c r="E81">
-        <v>39</v>
-      </c>
-      <c r="F81" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2651,13 +2648,13 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="E82">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2668,10 +2665,10 @@
         <v>60</v>
       </c>
       <c r="E83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2682,10 +2679,10 @@
         <v>61</v>
       </c>
       <c r="E84">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2693,13 +2690,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E85">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2710,10 +2707,10 @@
         <v>94</v>
       </c>
       <c r="E86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2724,85 +2721,85 @@
         <v>95</v>
       </c>
       <c r="E87">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" t="s">
-        <v>6</v>
-      </c>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>96</v>
       </c>
       <c r="E88">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>97</v>
       </c>
       <c r="E89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>98</v>
       </c>
       <c r="E90">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
         <v>99</v>
       </c>
-      <c r="E91">
+      <c r="E92">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
         <v>16</v>
       </c>
-      <c r="E92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" t="s">
         <v>100</v>
       </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C94" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94">
+      <c r="E95">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>163</v>
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
       </c>
       <c r="C96" t="s">
         <v>101</v>
@@ -2812,17 +2809,11 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" t="s">
-        <v>4</v>
-      </c>
       <c r="C97" t="s">
         <v>102</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2830,45 +2821,45 @@
         <v>103</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="E99">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="E100">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>162</v>
+      </c>
       <c r="C101" t="s">
         <v>105</v>
       </c>
       <c r="E101">
-        <v>16</v>
+        <v>77</v>
+      </c>
+      <c r="F101" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>163</v>
-      </c>
       <c r="C102" t="s">
         <v>106</v>
       </c>
       <c r="E102">
-        <v>77</v>
-      </c>
-      <c r="F102" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -2884,55 +2875,55 @@
         <v>108</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E110">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -2940,7 +2931,7 @@
         <v>112</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -2948,7 +2939,7 @@
         <v>113</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -2956,7 +2947,7 @@
         <v>114</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -2964,7 +2955,7 @@
         <v>115</v>
       </c>
       <c r="E114">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -2972,45 +2963,45 @@
         <v>116</v>
       </c>
       <c r="E115">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>162</v>
+      </c>
       <c r="C116" t="s">
         <v>117</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="F116" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>163</v>
-      </c>
       <c r="C117" t="s">
         <v>118</v>
       </c>
       <c r="E117">
-        <v>62</v>
-      </c>
-      <c r="F117" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="E118">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3026,12 +3017,12 @@
         <v>121</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="E122">
         <v>8</v>
@@ -3039,15 +3030,15 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="E123">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -3055,10 +3046,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3066,7 +3057,7 @@
         <v>124</v>
       </c>
       <c r="E126">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3074,7 +3065,7 @@
         <v>125</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3082,7 +3073,7 @@
         <v>126</v>
       </c>
       <c r="E128">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3090,7 +3081,7 @@
         <v>127</v>
       </c>
       <c r="E129">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3098,31 +3089,37 @@
         <v>128</v>
       </c>
       <c r="E130">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
       <c r="C131" t="s">
         <v>129</v>
       </c>
       <c r="E131">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>168</v>
+      </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E132">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3131,21 +3128,15 @@
         <v>81</v>
       </c>
       <c r="E133">
-        <v>27</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>169</v>
-      </c>
-      <c r="B134" t="s">
-        <v>6</v>
-      </c>
       <c r="C134" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="E134">
-        <v>225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -3153,7 +3144,7 @@
         <v>131</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -3161,7 +3152,7 @@
         <v>132</v>
       </c>
       <c r="E136">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -3169,7 +3160,7 @@
         <v>133</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -3177,7 +3168,7 @@
         <v>134</v>
       </c>
       <c r="E138">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -3185,7 +3176,7 @@
         <v>135</v>
       </c>
       <c r="E139">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -3193,7 +3184,7 @@
         <v>136</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -3201,7 +3192,7 @@
         <v>137</v>
       </c>
       <c r="E141">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -3209,7 +3200,7 @@
         <v>138</v>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -3217,7 +3208,7 @@
         <v>139</v>
       </c>
       <c r="E143">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -3225,7 +3216,7 @@
         <v>140</v>
       </c>
       <c r="E144">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -3233,7 +3224,7 @@
         <v>141</v>
       </c>
       <c r="E145">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -3241,7 +3232,7 @@
         <v>142</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -3249,7 +3240,7 @@
         <v>143</v>
       </c>
       <c r="E147">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -3257,7 +3248,7 @@
         <v>144</v>
       </c>
       <c r="E148">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -3265,7 +3256,7 @@
         <v>145</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -3273,7 +3264,7 @@
         <v>146</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -3281,7 +3272,7 @@
         <v>147</v>
       </c>
       <c r="E151">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -3289,7 +3280,7 @@
         <v>148</v>
       </c>
       <c r="E152">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -3297,12 +3288,12 @@
         <v>149</v>
       </c>
       <c r="E153">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -3310,10 +3301,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -3321,29 +3312,29 @@
         <v>151</v>
       </c>
       <c r="E156">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
       <c r="C157" t="s">
         <v>152</v>
       </c>
       <c r="E157">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>7</v>
-      </c>
-      <c r="B158" t="s">
-        <v>4</v>
-      </c>
       <c r="C158" t="s">
         <v>153</v>
       </c>
       <c r="E158">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -3351,7 +3342,7 @@
         <v>154</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -3359,7 +3350,7 @@
         <v>155</v>
       </c>
       <c r="E160">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -3367,7 +3358,7 @@
         <v>156</v>
       </c>
       <c r="E161">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -3375,54 +3366,54 @@
         <v>157</v>
       </c>
       <c r="E162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E164" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>158</v>
+      </c>
+      <c r="E166">
         <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C163" t="s">
-        <v>158</v>
-      </c>
-      <c r="E163">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>170</v>
-      </c>
-      <c r="B164" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" t="s">
-        <v>20</v>
-      </c>
-      <c r="E164">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E165" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>170</v>
-      </c>
-      <c r="B166" t="s">
-        <v>6</v>
-      </c>
-      <c r="C166" t="s">
-        <v>21</v>
-      </c>
-      <c r="E166">
-        <v>2294</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -3430,20 +3421,26 @@
         <v>159</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
         <v>160</v>
-      </c>
-      <c r="E168">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C169" t="s">
-        <v>19</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -3454,13 +3451,13 @@
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -3474,7 +3471,7 @@
         <v>60</v>
       </c>
       <c r="E171">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -3488,7 +3485,7 @@
         <v>61</v>
       </c>
       <c r="E172">
-        <v>63</v>
+        <v>262</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -3499,10 +3496,10 @@
         <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E173">
-        <v>262</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -3516,7 +3513,7 @@
         <v>64</v>
       </c>
       <c r="E174">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -3527,10 +3524,10 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E175">
-        <v>9</v>
+        <v>541</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -3541,10 +3538,10 @@
         <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E176">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -3555,10 +3552,10 @@
         <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -3569,10 +3566,10 @@
         <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E178">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -3583,10 +3580,10 @@
         <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E179">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -3597,23 +3594,9 @@
         <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E180">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>7</v>
-      </c>
-      <c r="B181" t="s">
-        <v>6</v>
-      </c>
-      <c r="C181" t="s">
-        <v>72</v>
-      </c>
-      <c r="E181">
         <v>279</v>
       </c>
     </row>

--- a/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
+++ b/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="172">
   <si>
     <t>properties.type</t>
   </si>
@@ -502,9 +502,6 @@
     <t>eindconstructie</t>
   </si>
   <si>
-    <t>geleidecosntructie</t>
-  </si>
-  <si>
     <t>nogal lang</t>
   </si>
   <si>
@@ -518,13 +515,28 @@
   </si>
   <si>
     <t>obstakelbeveiliger</t>
+  </si>
+  <si>
+    <t>Geteste beginconstructie</t>
+  </si>
+  <si>
+    <t>beton vervangen door</t>
+  </si>
+  <si>
+    <t>geprefabriceerde-beton</t>
+  </si>
+  <si>
+    <t>in-situ-beton</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +671,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1008,10 +1026,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1354,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,137 +1405,155 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>503</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E5">
-        <v>908</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
       </c>
       <c r="E7">
-        <v>232</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E9">
-        <v>135</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
       </c>
       <c r="E10">
-        <v>818</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1527,10 +1564,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1541,10 +1578,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E13">
-        <v>541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1555,10 +1592,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E14">
-        <v>349</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1569,10 +1606,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E15">
-        <v>252</v>
+        <v>908</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1583,10 +1620,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1597,10 +1634,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E17">
-        <v>51</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,10 +1648,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1625,10 +1662,10 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E19">
-        <v>4312</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1639,10 +1676,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E20">
-        <v>271</v>
+        <v>818</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1653,10 +1690,10 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E21">
-        <v>222</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1667,35 +1704,38 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E22">
-        <v>81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1703,13 +1743,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E25">
-        <v>150</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1717,29 +1757,41 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
       <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28">
         <v>17</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1750,49 +1802,52 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E32">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,13 +1855,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33">
         <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33">
-        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1814,24 +1872,33 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
         <v>25</v>
       </c>
-      <c r="E34">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>147</v>
-      </c>
       <c r="E35">
-        <v>1</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1842,21 +1909,30 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1867,13 +1943,10 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E38">
-        <v>193</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1884,13 +1957,13 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1901,325 +1974,502 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
       </c>
       <c r="E40">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
       </c>
       <c r="E42">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
       </c>
       <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53">
-        <v>4</v>
-      </c>
-    </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>32</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
       </c>
       <c r="E54">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
       </c>
       <c r="E55">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E56">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>36</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E60">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>39</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
       </c>
       <c r="E63">
-        <v>225</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
       </c>
       <c r="E64">
-        <v>2294</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E65">
-        <v>1754</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E66">
-        <v>252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E67">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="E68">
-        <v>415</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
       </c>
       <c r="E69">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70">
         <v>18</v>
-      </c>
-      <c r="E70">
-        <v>1264</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2227,37 +2477,58 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
         <v>4</v>
       </c>
-      <c r="C71" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>127</v>
-      </c>
-      <c r="E72">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>126</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2265,19 +2536,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
-      </c>
-      <c r="D75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E75">
-        <v>12</v>
+        <v>415</v>
       </c>
       <c r="F75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,16 +2553,13 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
-      </c>
-      <c r="D76" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2302,16 +2567,13 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="E77">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2319,16 +2581,16 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2336,24 +2598,27 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
-      </c>
-      <c r="D79" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="E79">
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,136 +2626,139 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
       <c r="C82" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="E83">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="E85">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E86">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="E87">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>160</v>
+      </c>
       <c r="C88" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E88">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
       <c r="C89" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="E89">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E90">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>170</v>
+      </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -2498,474 +2766,303 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4</v>
-      </c>
       <c r="C95" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E95">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>160</v>
-      </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E96">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E97">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>141</v>
+      </c>
+      <c r="E99">
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
-        <v>112</v>
-      </c>
-      <c r="E99">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>140</v>
+      </c>
+      <c r="E100">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" t="s">
-        <v>46</v>
-      </c>
-      <c r="D100" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="E101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>161</v>
-      </c>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="E103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>137</v>
+      </c>
+      <c r="E104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>136</v>
+      </c>
+      <c r="E105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>156</v>
+      </c>
+      <c r="E110">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>110</v>
-      </c>
-      <c r="E104">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>130</v>
+      </c>
+      <c r="E112">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" t="s">
-        <v>45</v>
-      </c>
-      <c r="D105" t="s">
-        <v>44</v>
-      </c>
-      <c r="E105">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" t="s">
-        <v>43</v>
-      </c>
-      <c r="D106" t="s">
-        <v>44</v>
-      </c>
-      <c r="E106">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>129</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>160</v>
-      </c>
-      <c r="B107" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" t="s">
-        <v>88</v>
-      </c>
-      <c r="E107">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>109</v>
-      </c>
-      <c r="E108">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>125</v>
+      </c>
+      <c r="E116">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" t="s">
-        <v>87</v>
-      </c>
-      <c r="E109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>87</v>
-      </c>
-      <c r="E110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>108</v>
-      </c>
-      <c r="E111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" t="s">
-        <v>41</v>
-      </c>
-      <c r="D112" t="s">
-        <v>42</v>
-      </c>
-      <c r="E112">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>160</v>
-      </c>
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" t="s">
-        <v>86</v>
-      </c>
-      <c r="E113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>107</v>
-      </c>
-      <c r="E114">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>106</v>
-      </c>
-      <c r="E115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" t="s">
-        <v>37</v>
-      </c>
-      <c r="D116" t="s">
-        <v>25</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" t="s">
-        <v>5</v>
-      </c>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>34</v>
-      </c>
-      <c r="D117" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="E117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" t="s">
-        <v>5</v>
-      </c>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>33</v>
-      </c>
-      <c r="D119" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="E119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>90</v>
+      </c>
+      <c r="E120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>120</v>
+      </c>
+      <c r="E121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>155</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>121</v>
+      </c>
+      <c r="E123">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" t="s">
-        <v>32</v>
-      </c>
-      <c r="D120" t="s">
-        <v>25</v>
-      </c>
-      <c r="E120">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" t="s">
-        <v>38</v>
-      </c>
-      <c r="D121" t="s">
-        <v>25</v>
-      </c>
-      <c r="E121">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>119</v>
+      </c>
+      <c r="E124">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" t="s">
-        <v>31</v>
-      </c>
-      <c r="D122" t="s">
-        <v>25</v>
-      </c>
-      <c r="E122">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" t="s">
-        <v>40</v>
-      </c>
-      <c r="D123" t="s">
-        <v>25</v>
-      </c>
-      <c r="E123">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>118</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>114</v>
+      </c>
+      <c r="E127">
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" t="s">
-        <v>30</v>
-      </c>
-      <c r="D124" t="s">
-        <v>25</v>
-      </c>
-      <c r="E124">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" t="s">
-        <v>36</v>
-      </c>
-      <c r="D125" t="s">
-        <v>25</v>
-      </c>
-      <c r="E125">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" t="s">
-        <v>35</v>
-      </c>
-      <c r="D126" t="s">
-        <v>25</v>
-      </c>
-      <c r="E126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" t="s">
-        <v>39</v>
-      </c>
-      <c r="D127" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>160</v>
-      </c>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E128">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E129">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E130">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -2973,75 +3070,50 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="E132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>6</v>
-      </c>
-      <c r="B133" t="s">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+      <c r="B133"/>
       <c r="C133" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133" t="s">
-        <v>7</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D133"/>
       <c r="E133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B134" t="s">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
-        <v>84</v>
-      </c>
-      <c r="D134"/>
+        <v>87</v>
+      </c>
       <c r="E134">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="E135">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" t="s">
-        <v>5</v>
-      </c>
       <c r="C136" t="s">
-        <v>10</v>
-      </c>
-      <c r="D136" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="E137">
         <v>2</v>
@@ -3049,145 +3121,100 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="E139">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="E140">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>101</v>
+      </c>
+      <c r="E141">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>6</v>
-      </c>
-      <c r="B141" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" t="s">
-        <v>153</v>
-      </c>
-      <c r="E141">
-        <v>16</v>
-      </c>
-    </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>6</v>
-      </c>
-      <c r="B142" t="s">
-        <v>4</v>
-      </c>
       <c r="C142" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E142">
         <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>160</v>
-      </c>
       <c r="C143" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>97</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>96</v>
+      </c>
+      <c r="E146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>95</v>
+      </c>
+      <c r="E147">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C144" t="s">
-        <v>28</v>
-      </c>
-      <c r="D144" t="s">
-        <v>29</v>
-      </c>
-      <c r="E144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C145" t="s">
-        <v>27</v>
-      </c>
-      <c r="D145" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C146" t="s">
-        <v>97</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
-        <v>96</v>
-      </c>
-      <c r="E147">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>12</v>
-      </c>
-      <c r="B148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" t="s">
-        <v>74</v>
-      </c>
-      <c r="D148" t="s">
-        <v>44</v>
-      </c>
-      <c r="E148">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C149" t="s">
-        <v>95</v>
-      </c>
-      <c r="E149">
-        <v>2</v>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>168</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E180">
-    <sortCondition descending="1" ref="C2:C180"/>
+  <sortState ref="A2:E147">
+    <sortCondition descending="1" ref="B2:B147"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
+++ b/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="171">
   <si>
     <t>properties.type</t>
   </si>
@@ -527,9 +527,6 @@
   </si>
   <si>
     <t>in-situ-beton</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
 </sst>
 </file>
@@ -1375,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,154 +1403,142 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>225</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>908</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>818</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E9">
-        <v>252</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>77</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1564,10 +1549,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E12">
-        <v>39</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1578,24 +1563,24 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E14">
-        <v>503</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,10 +1591,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E15">
-        <v>908</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1620,24 +1605,24 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E17">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1648,10 +1633,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E18">
-        <v>31</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,10 +1647,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>135</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1676,10 +1664,13 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
       </c>
       <c r="E20">
-        <v>818</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1687,13 +1678,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1704,10 +1695,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1715,13 +1706,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>541</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1732,10 +1723,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>349</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1746,24 +1740,24 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="E25">
-        <v>252</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1774,10 +1768,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
       </c>
       <c r="E27">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1785,13 +1782,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1802,24 +1802,21 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E29">
-        <v>4312</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="E30">
-        <v>271</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1830,10 +1827,10 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E31">
-        <v>222</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1844,10 +1841,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
       </c>
       <c r="E32">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1858,13 +1858,13 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1875,13 +1875,13 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1892,13 +1892,10 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E35">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1909,30 +1906,27 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E37">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1943,10 +1937,10 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E38">
-        <v>1754</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1957,64 +1951,49 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E39">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2022,64 +2001,46 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E43">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E46">
-        <v>178</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2090,13 +2051,10 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E47">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2107,27 +2065,21 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2135,33 +2087,21 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="E50">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
       <c r="C51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2172,47 +2112,44 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E54">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2223,64 +2160,46 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
       <c r="C56" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="E56">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
       <c r="C57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E58">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2291,13 +2210,10 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E59">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2308,13 +2224,13 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
         <v>25</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,123 +2238,72 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="E61">
-        <v>93</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
       <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62">
         <v>10</v>
       </c>
-      <c r="D62" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63">
         <v>9</v>
       </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63">
-        <v>3</v>
-      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
       <c r="C64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64">
         <v>9</v>
       </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>165</v>
-      </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="E65">
-        <v>2294</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>160</v>
-      </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>160</v>
-      </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2446,16 +2311,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D69" t="s">
         <v>25</v>
       </c>
       <c r="E69">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2463,72 +2328,48 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>40</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
       </c>
       <c r="E70">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
       <c r="C71" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" t="s">
-        <v>170</v>
-      </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="E72">
-        <v>150</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" t="s">
-        <v>170</v>
-      </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4</v>
-      </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E74">
-        <v>116</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2536,13 +2377,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
       </c>
       <c r="E75">
-        <v>415</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
         <v>162</v>
@@ -2553,338 +2397,404 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E76">
-        <v>1950</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>6</v>
-      </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="E77">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>143</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83">
         <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s">
-        <v>154</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E80">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" t="s">
-        <v>100</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" t="s">
-        <v>84</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>167</v>
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>52</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
       </c>
       <c r="E84">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>167</v>
-      </c>
       <c r="C85" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E85">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
       <c r="C86" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>160</v>
-      </c>
       <c r="C87" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E87">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>160</v>
-      </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
       <c r="C89" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F89" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
       <c r="C90" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
       <c r="B91" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>149</v>
+        <v>43</v>
+      </c>
+      <c r="D91" t="s">
+        <v>44</v>
       </c>
       <c r="E91">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
       <c r="C93" t="s">
-        <v>148</v>
+        <v>28</v>
+      </c>
+      <c r="D93" t="s">
+        <v>29</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="E95">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
       <c r="C96" t="s">
-        <v>145</v>
+        <v>81</v>
+      </c>
+      <c r="D96" t="s">
+        <v>42</v>
       </c>
       <c r="E96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
       <c r="C97" t="s">
-        <v>143</v>
+        <v>33</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
       </c>
       <c r="E97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
       <c r="C98" t="s">
-        <v>142</v>
+        <v>38</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
       </c>
       <c r="E98">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
       <c r="C99" t="s">
-        <v>141</v>
+        <v>35</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
       </c>
       <c r="E99">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>27</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
       <c r="C101" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="E101">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
       <c r="C102" t="s">
-        <v>139</v>
+        <v>24</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
       </c>
       <c r="E102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E103">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>160</v>
+      </c>
       <c r="C104" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="E104">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E105">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E106">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E107">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E108">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>133</v>
       </c>
@@ -2892,260 +2802,344 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="E110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E112">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E113">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E114">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E116">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E119">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E120">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E121">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="E122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="E123">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>82</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
       <c r="C124" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="E124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
       <c r="C125" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="E125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
       <c r="C127" t="s">
-        <v>114</v>
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
       </c>
       <c r="E127">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
       <c r="C128" t="s">
-        <v>113</v>
+        <v>48</v>
+      </c>
+      <c r="D128" t="s">
+        <v>44</v>
       </c>
       <c r="E128">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
       <c r="C129" t="s">
-        <v>112</v>
+        <v>37</v>
+      </c>
+      <c r="D129" t="s">
+        <v>25</v>
       </c>
       <c r="E129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
       <c r="C130" t="s">
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>161</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
       <c r="C131" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>170</v>
+      </c>
       <c r="C132" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133"/>
-      <c r="B133"/>
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
       <c r="C133" t="s">
-        <v>109</v>
-      </c>
-      <c r="D133"/>
+        <v>20</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
       <c r="E133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
       <c r="C134" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
       <c r="C135" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="E136">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="E138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="E139">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="E140">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -3153,15 +3147,15 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -3169,15 +3163,15 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="E144">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -3185,18 +3179,18 @@
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E146">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
@@ -3214,7 +3208,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:E147">
-    <sortCondition descending="1" ref="B2:B147"/>
+    <sortCondition descending="1" ref="E2:E147"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
+++ b/UploadAfschermendeConstructies/analyse_afschermende_constructies.xlsx
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1462,7 @@
         <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
